--- a/ig/ch-vacd/StructureDefinition-ch-vacd-composition-immunization-administration.xlsx
+++ b/ig/ch-vacd/StructureDefinition-ch-vacd-composition-immunization-administration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10077" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10077" uniqueCount="801">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1033,7 +1033,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1278,7 +1278,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
     <t>Composition.attester:legalAuthenticator.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
 </t>
   </si>
   <si>
@@ -1840,10 +1840,6 @@
     <t>Composition.section:originalRepresentation.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
-  </si>
-  <si>
     <t>Composition.section:originalRepresentation.focus</t>
   </si>
   <si>
@@ -1917,7 +1913,7 @@
     <t>Composition.section:administration.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -2865,15 +2861,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2884,27 +2880,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="48.078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="41.21875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16160,7 +16156,7 @@
         <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>585</v>
+        <v>324</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>525</v>
@@ -16251,7 +16247,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>527</v>
@@ -16368,7 +16364,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>532</v>
@@ -16397,7 +16393,7 @@
         <v>121</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>534</v>
@@ -16485,7 +16481,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>538</v>
@@ -16604,7 +16600,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>546</v>
@@ -16723,7 +16719,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>554</v>
@@ -16749,10 +16745,10 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>556</v>
@@ -16840,7 +16836,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>561</v>
@@ -16959,7 +16955,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>569</v>
@@ -17076,13 +17072,13 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>501</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>79</v>
@@ -17107,7 +17103,7 @@
         <v>372</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>503</v>
@@ -17193,7 +17189,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>508</v>
@@ -17308,7 +17304,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>509</v>
@@ -17421,7 +17417,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>510</v>
@@ -17540,7 +17536,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>511</v>
@@ -17569,7 +17565,7 @@
         <v>173</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>514</v>
@@ -17659,7 +17655,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>517</v>
@@ -17688,7 +17684,7 @@
         <v>194</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>519</v>
@@ -17707,7 +17703,7 @@
         <v>79</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>79</v>
@@ -17778,7 +17774,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>524</v>
@@ -17804,10 +17800,10 @@
         <v>79</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>526</v>
@@ -17895,10 +17891,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18010,10 +18006,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B130" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18125,10 +18121,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B131" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18242,10 +18238,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18359,10 +18355,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18476,10 +18472,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18593,7 +18589,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>527</v>
@@ -18710,7 +18706,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>532</v>
@@ -18739,7 +18735,7 @@
         <v>121</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>534</v>
@@ -18827,7 +18823,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>538</v>
@@ -18946,7 +18942,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>546</v>
@@ -19065,7 +19061,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>554</v>
@@ -19091,10 +19087,10 @@
         <v>79</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>556</v>
@@ -19182,10 +19178,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19297,10 +19293,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19414,10 +19410,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19531,10 +19527,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19648,10 +19644,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19765,10 +19761,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19882,7 +19878,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>561</v>
@@ -20001,7 +19997,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>569</v>
@@ -20118,13 +20114,13 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>501</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>79</v>
@@ -20149,7 +20145,7 @@
         <v>372</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>503</v>
@@ -20235,7 +20231,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>508</v>
@@ -20350,7 +20346,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>509</v>
@@ -20463,7 +20459,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>510</v>
@@ -20582,7 +20578,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>511</v>
@@ -20611,7 +20607,7 @@
         <v>173</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>514</v>
@@ -20701,7 +20697,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>517</v>
@@ -20730,7 +20726,7 @@
         <v>194</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>519</v>
@@ -20749,7 +20745,7 @@
         <v>79</v>
       </c>
       <c r="S153" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T153" t="s" s="2">
         <v>79</v>
@@ -20820,7 +20816,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>524</v>
@@ -20846,10 +20842,10 @@
         <v>79</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>526</v>
@@ -20937,10 +20933,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21052,10 +21048,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21167,10 +21163,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21284,10 +21280,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21401,10 +21397,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21518,10 +21514,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21635,7 +21631,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>527</v>
@@ -21752,7 +21748,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>532</v>
@@ -21781,7 +21777,7 @@
         <v>121</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>534</v>
@@ -21869,7 +21865,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>538</v>
@@ -21988,7 +21984,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>546</v>
@@ -22107,7 +22103,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>554</v>
@@ -22133,10 +22129,10 @@
         <v>79</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>556</v>
@@ -22224,10 +22220,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22339,10 +22335,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22456,10 +22452,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22573,10 +22569,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22690,10 +22686,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22807,10 +22803,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22924,7 +22920,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>561</v>
@@ -23043,7 +23039,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>569</v>
@@ -23160,13 +23156,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>501</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>79</v>
@@ -23191,7 +23187,7 @@
         <v>372</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>503</v>
@@ -23277,7 +23273,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>508</v>
@@ -23392,7 +23388,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>509</v>
@@ -23505,7 +23501,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>510</v>
@@ -23624,7 +23620,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>511</v>
@@ -23653,7 +23649,7 @@
         <v>173</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>514</v>
@@ -23743,7 +23739,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>517</v>
@@ -23772,7 +23768,7 @@
         <v>194</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>519</v>
@@ -23791,7 +23787,7 @@
         <v>79</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>79</v>
@@ -23862,7 +23858,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>524</v>
@@ -23888,10 +23884,10 @@
         <v>79</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M180" t="s" s="2">
         <v>526</v>
@@ -23979,10 +23975,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24094,10 +24090,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24209,10 +24205,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24326,10 +24322,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24443,10 +24439,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24560,10 +24556,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24677,7 +24673,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>527</v>
@@ -24794,7 +24790,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>532</v>
@@ -24823,7 +24819,7 @@
         <v>121</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M188" t="s" s="2">
         <v>534</v>
@@ -24911,7 +24907,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>538</v>
@@ -25030,7 +25026,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>546</v>
@@ -25149,7 +25145,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>554</v>
@@ -25175,10 +25171,10 @@
         <v>79</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>556</v>
@@ -25266,10 +25262,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25381,10 +25377,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25498,10 +25494,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25615,10 +25611,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25732,10 +25728,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25849,10 +25845,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25966,7 +25962,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>561</v>
@@ -26085,7 +26081,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>569</v>
@@ -26202,13 +26198,13 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>501</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>79</v>
@@ -26233,7 +26229,7 @@
         <v>372</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M200" t="s" s="2">
         <v>503</v>
@@ -26319,7 +26315,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>508</v>
@@ -26434,7 +26430,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>509</v>
@@ -26547,7 +26543,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>510</v>
@@ -26666,7 +26662,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>511</v>
@@ -26695,7 +26691,7 @@
         <v>173</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M204" t="s" s="2">
         <v>514</v>
@@ -26785,7 +26781,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>517</v>
@@ -26814,7 +26810,7 @@
         <v>194</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M205" t="s" s="2">
         <v>519</v>
@@ -26833,7 +26829,7 @@
         <v>79</v>
       </c>
       <c r="S205" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T205" t="s" s="2">
         <v>79</v>
@@ -26904,7 +26900,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>524</v>
@@ -26930,10 +26926,10 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>526</v>
@@ -27021,10 +27017,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27136,10 +27132,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27251,10 +27247,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27368,10 +27364,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27485,10 +27481,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27602,10 +27598,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27719,7 +27715,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>527</v>
@@ -27836,7 +27832,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>532</v>
@@ -27865,7 +27861,7 @@
         <v>121</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>534</v>
@@ -27953,7 +27949,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>538</v>
@@ -28072,7 +28068,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>546</v>
@@ -28191,7 +28187,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>554</v>
@@ -28217,10 +28213,10 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>556</v>
@@ -28308,10 +28304,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28423,10 +28419,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28540,10 +28536,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28657,10 +28653,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28774,10 +28770,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28891,10 +28887,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29008,7 +29004,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>561</v>
@@ -29127,7 +29123,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>569</v>
@@ -29244,13 +29240,13 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>501</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>79</v>
@@ -29275,7 +29271,7 @@
         <v>372</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M226" t="s" s="2">
         <v>503</v>
@@ -29361,7 +29357,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>508</v>
@@ -29476,7 +29472,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>509</v>
@@ -29593,7 +29589,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>510</v>
@@ -29712,7 +29708,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>511</v>
@@ -29741,7 +29737,7 @@
         <v>173</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>514</v>
@@ -29831,7 +29827,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>517</v>
@@ -29860,7 +29856,7 @@
         <v>194</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>519</v>
@@ -29879,7 +29875,7 @@
         <v>79</v>
       </c>
       <c r="S231" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>79</v>
@@ -29950,7 +29946,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>524</v>
@@ -29976,10 +29972,10 @@
         <v>79</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>526</v>
@@ -30067,10 +30063,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30182,10 +30178,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30297,10 +30293,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30414,10 +30410,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30531,10 +30527,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -30648,10 +30644,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30765,7 +30761,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>527</v>
@@ -30882,7 +30878,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>532</v>
@@ -30911,7 +30907,7 @@
         <v>121</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M240" t="s" s="2">
         <v>534</v>
@@ -30999,7 +30995,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>538</v>
@@ -31118,7 +31114,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>546</v>
@@ -31237,7 +31233,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>554</v>
@@ -31263,10 +31259,10 @@
         <v>79</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="M243" t="s" s="2">
         <v>556</v>
@@ -31354,10 +31350,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31469,10 +31465,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31586,10 +31582,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -31703,10 +31699,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -31820,10 +31816,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -31937,10 +31933,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32054,7 +32050,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>561</v>
@@ -32173,7 +32169,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>569</v>
@@ -32290,13 +32286,13 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>501</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D252" t="s" s="2">
         <v>79</v>
@@ -32321,7 +32317,7 @@
         <v>372</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M252" t="s" s="2">
         <v>503</v>
@@ -32407,7 +32403,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>508</v>
@@ -32522,7 +32518,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>509</v>
@@ -32639,7 +32635,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>510</v>
@@ -32758,7 +32754,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>511</v>
@@ -32787,7 +32783,7 @@
         <v>173</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M256" t="s" s="2">
         <v>514</v>
@@ -32877,7 +32873,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>517</v>
@@ -32906,7 +32902,7 @@
         <v>194</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M257" t="s" s="2">
         <v>519</v>
@@ -32925,7 +32921,7 @@
         <v>79</v>
       </c>
       <c r="S257" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="T257" t="s" s="2">
         <v>79</v>
@@ -32996,7 +32992,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>524</v>
@@ -33113,7 +33109,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>527</v>
@@ -33230,7 +33226,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>532</v>
@@ -33259,7 +33255,7 @@
         <v>121</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>534</v>
@@ -33347,7 +33343,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>538</v>
@@ -33466,7 +33462,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>546</v>
@@ -33585,7 +33581,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>554</v>
@@ -33614,7 +33610,7 @@
         <v>497</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>556</v>
@@ -33702,10 +33698,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -33817,10 +33813,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -33934,10 +33930,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -34051,10 +34047,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -34168,10 +34164,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34285,10 +34281,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -34402,7 +34398,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>561</v>
@@ -34521,7 +34517,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>569</v>
